--- a/inst/extdata/Angola_2021_TES_7NMS.xlsx
+++ b/inst/extdata/Angola_2021_TES_7NMS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24b25e554f22146a/Master's Class notes/AIMS Rwanda - Mathematical Sciences - Epidemiology/Thesis Phase/R_Package_Folder/Updating amp seq/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24b25e554f22146a/Masters Class notes/AIMS Rwanda - Mathematical Sciences - Epidemiology/Thesis Phase/SwissTPH_Git_Repo/MalReBay/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B20DA4F-721B-464E-9695-5C34FB2A0A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -1491,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911BBCE5-29F9-4232-8B9D-873D630E1761}">
   <dimension ref="A1:NM149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:AD4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/inst/extdata/Angola_2021_TES_7NMS.xlsx
+++ b/inst/extdata/Angola_2021_TES_7NMS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24b25e554f22146a/Masters Class notes/AIMS Rwanda - Mathematical Sciences - Epidemiology/Thesis Phase/SwissTPH_Git_Repo/MalReBay/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24b25e554f22146a/Masters Class notes/AIMS Rwanda/Thesis Phase/SwissTPH_Git_Repo/MalReBay/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B20DA4F-721B-464E-9695-5C34FB2A0A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -1491,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911BBCE5-29F9-4232-8B9D-873D630E1761}">
   <dimension ref="A1:NM149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:Z1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
